--- a/project_ECE/Insulation Unfinished Attic.xlsx
+++ b/project_ECE/Insulation Unfinished Attic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspeake\Documents\OpenStudio-BuildStock\project_ECE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D3D71B-1D7C-47FD-BB26-62E9E3189FD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DBD0D8-2D43-4552-A730-331F716BE325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="345" windowWidth="4110" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insulation Unfinished Attic" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="33">
   <si>
     <t>Dependency=Location Region</t>
   </si>
@@ -702,7 +702,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12027568232292642"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.80513224308499898"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -994,7 +1004,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Insulation Unfinished Attic'!$Z$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2000s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkUpDiag">
+                <a:fgClr>
+                  <a:schemeClr val="accent1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1B12-4A7A-ADCB-F2ABDA99D7FC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Insulation Unfinished Attic'!$AA$32:$AG$32</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Un.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>R-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R-30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R-38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R-49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Insulation Unfinished Attic'!$AA$33:$AG$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B12-4A7A-ADCB-F2ABDA99D7FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="90"/>
+        <c:overlap val="-27"/>
+        <c:axId val="882645480"/>
+        <c:axId val="882644168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="882645480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882644168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="882644168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.66000000000000014"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882645480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1537,20 +1895,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1570,6 +2431,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987C2CB6-C348-43A5-861F-63F28B91D66F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1878,8 +2775,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AC78" sqref="AC78"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,8 +5573,29 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="AA32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -4761,8 +5679,32 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="Z33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0.01</v>
+      </c>
+      <c r="AE33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF33">
+        <v>0.65</v>
+      </c>
+      <c r="AG33">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -4847,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -4932,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -5017,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -5102,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -5187,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -5272,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -5357,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -5442,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -5612,7 +6554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -5697,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -5782,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -5867,7 +6809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -5952,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>

--- a/project_ECE/Insulation Unfinished Attic.xlsx
+++ b/project_ECE/Insulation Unfinished Attic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspeake\Documents\OpenStudio-BuildStock\project_ECE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DBD0D8-2D43-4552-A730-331F716BE325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AA084B-D8A7-4E06-A5B7-FA7F1B5A89C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insulation Unfinished Attic" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1225,7 +1225,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2402,16 +2402,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2439,15 +2439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
